--- a/DataMain.xlsx
+++ b/DataMain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,10 +531,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>11391</t>
-        </is>
+      <c r="A2" t="n">
+        <v>11391</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -549,297 +547,1204 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>28400</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>291</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>290</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>11</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>68</v>
+      </c>
+      <c r="R3" t="n">
+        <v>45</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>30268</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>87</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>52</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>15</v>
+      </c>
+      <c r="R4" t="n">
         <v>4</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Withdrawn</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>31604</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>471</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>393</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>18</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>128</v>
+      </c>
+      <c r="R5" t="n">
+        <v>79</v>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>28400</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="n">
+        <v>32885</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>132</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>191</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>40</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>70</v>
+      </c>
+      <c r="R6" t="n">
+        <v>14</v>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>30268</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="n">
+        <v>38053</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>594</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>459</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>11</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>87</v>
+      </c>
+      <c r="R7" t="n">
+        <v>42</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>95</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>285</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>6</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>82</v>
+      </c>
+      <c r="R8" t="n">
+        <v>24</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>304</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>254</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>13</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>98</v>
+      </c>
+      <c r="R9" t="n">
+        <v>52</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>52130</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>237</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>432</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>15</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>184</v>
+      </c>
+      <c r="R10" t="n">
+        <v>110</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>53025</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1223</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>362</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>6</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>116</v>
+      </c>
+      <c r="R11" t="n">
+        <v>75</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>57506</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>22</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>343</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>15</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>113</v>
+      </c>
+      <c r="R12" t="n">
+        <v>58</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>58873</v>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>170</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>409</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>6</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>95</v>
+      </c>
+      <c r="R13" t="n">
+        <v>68</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>59185</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>143</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>202</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>11</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>94</v>
+      </c>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>62155</v>
+      </c>
+      <c r="B15" t="n">
+        <v>12</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>822</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>467</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>16</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>60</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>63400</v>
+      </c>
+      <c r="B16" t="n">
+        <v>18</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>311</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>479</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>8</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>177</v>
+      </c>
+      <c r="R16" t="n">
+        <v>105</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65002</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>12</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>40</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>14</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="inlineStr">
         <is>
           <t>Withdrawn</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>31604</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="n">
+        <v>70464</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>69</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>221</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>9</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>44</v>
+      </c>
+      <c r="R18" t="n">
+        <v>25</v>
+      </c>
+      <c r="S18" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>32885</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="n">
+        <v>71361</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>502</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>353</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>35</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>107</v>
+      </c>
+      <c r="R19" t="n">
+        <v>65</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>74372</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>13</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>32</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>20</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>75091</v>
+      </c>
+      <c r="B21" t="n">
+        <v>12</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>554</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>554</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>36</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>152</v>
+      </c>
+      <c r="R21" t="n">
+        <v>49</v>
+      </c>
+      <c r="S21" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>

--- a/DataMain.xlsx
+++ b/DataMain.xlsx
@@ -532,10 +532,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11391</v>
+        <v>6516</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>451</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>497</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -574,16 +574,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>

--- a/DataMain.xlsx
+++ b/DataMain.xlsx
@@ -532,10 +532,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6516</v>
+        <v>11391</v>
       </c>
       <c r="B2" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>451</v>
+        <v>193</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>497</v>
+        <v>138</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -574,16 +574,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="R2" t="n">
-        <v>143</v>
+        <v>5</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -608,13 +608,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>291</v>
+        <v>417</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -635,16 +635,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="R3" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -669,13 +669,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="R4" t="n">
         <v>4</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>471</v>
+        <v>634</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -757,16 +757,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="R5" t="n">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -791,13 +791,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>132</v>
+        <v>194</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="R6" t="n">
         <v>14</v>
@@ -852,13 +852,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>594</v>
+        <v>875</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>459</v>
+        <v>512</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -885,10 +885,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="R7" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -913,13 +913,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="R8" t="n">
         <v>24</v>
@@ -974,13 +974,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>304</v>
+        <v>428</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1001,16 +1001,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="R9" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>237</v>
+        <v>333</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>432</v>
+        <v>476</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="R10" t="n">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1223</v>
+        <v>1974</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>362</v>
+        <v>394</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1129,10 +1129,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="R11" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1157,13 +1157,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H12" t="n">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="R12" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1218,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170</v>
+        <v>229</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>409</v>
+        <v>488</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1251,10 +1251,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="R13" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1279,13 +1279,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>143</v>
+        <v>218</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1306,16 +1306,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="R14" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1340,13 +1340,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>822</v>
+        <v>1255</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>467</v>
+        <v>513</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R15" t="n">
         <v>5</v>
@@ -1389,7 +1389,7 @@
         <v>63400</v>
       </c>
       <c r="B16" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1401,13 +1401,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>311</v>
+        <v>411</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>479</v>
+        <v>543</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1434,10 +1434,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="R16" t="n">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="R17" t="n">
         <v>1</v>
@@ -1523,13 +1523,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R18" t="n">
         <v>25</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>502</v>
+        <v>822</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1611,16 +1611,16 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="R19" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -1645,13 +1645,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1678,10 +1678,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -1706,13 +1706,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>554</v>
+        <v>756</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>554</v>
+        <v>602</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="R21" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>

--- a/DataMain.xlsx
+++ b/DataMain.xlsx
@@ -532,10 +532,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6516</v>
+        <v>3733</v>
       </c>
       <c r="B2" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>451</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>497</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -574,20 +574,20 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Withdrawn</t>
         </is>
       </c>
     </row>
